--- a/FASE II - Ejecucion/5000 Pruebas de Activos/5200 Cuentas por Cobrar/Clientes por Cobrar Telcodata dic 2020.xlsx
+++ b/FASE II - Ejecucion/5000 Pruebas de Activos/5200 Cuentas por Cobrar/Clientes por Cobrar Telcodata dic 2020.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgalarza\Desktop\AUDITORIA\CARTERA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\TELCODATA\FASE II - Ejecucion\5000 Pruebas de Activos\5200 Cuentas por Cobrar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2350E1-E86F-4563-9B24-8DE0D34507D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="10530" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTE POR COBRAR DIC 2020" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>FECHA</t>
   </si>
@@ -126,12 +136,27 @@
   </si>
   <si>
     <t>Traspaso de saldo de cuentas por cobrar a cuenta por pagar relacionada telconet</t>
+  </si>
+  <si>
+    <t>0-30</t>
+  </si>
+  <si>
+    <t>31-60</t>
+  </si>
+  <si>
+    <t>61-90</t>
+  </si>
+  <si>
+    <t>91-120</t>
+  </si>
+  <si>
+    <t>121-150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,11 +211,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -224,6 +264,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,14 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2"/>
@@ -953,8 +998,54 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="6"/>
+      <c r="C27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="6">
+        <f>SUM(E14:E23)+E9+E10</f>
+        <v>32000.680000000008</v>
+      </c>
       <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="14">
+        <f>SUM(E11:E13)</f>
+        <v>98245.979999999981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="14">
+        <f>+E6+E7+E8</f>
+        <v>47939.170000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="15">
+        <f>SUM(E27:E31)</f>
+        <v>178185.83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
